--- a/results/[13_zero_co2_price]_#_inv_capacity.xlsx
+++ b/results/[13_zero_co2_price]_#_inv_capacity.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.08480243227177876</v>
+        <v>0.1851651463765911</v>
       </c>
       <c r="B2" t="n">
-        <v>0.005479856803374491</v>
+        <v>0.02589925663510731</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0531349</v>
+        <v>0.1734801324400598</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1713964431966255</v>
+        <v>0.1304011109248329</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3999141666666667</v>
+        <v>0.4039567342501246</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6812677243698642</v>
+        <v>0.9957251134364422</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.774494158844193</v>
+        <v>8.345858816770113</v>
       </c>
       <c r="O2" t="n">
-        <v>5.475032316425031</v>
+        <v>5.575886644528953</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.476827767728214</v>
+        <v>0.1248156211833492</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02413464319662553</v>
+        <v>0.140790332440046</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2567108638625015</v>
+        <v>0.08898626755994007</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07809279294088009</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1020953413802113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.427109022677429</v>
+        <v>0.5294595865635581</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.005660363447915484</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.744508802638732</v>
+        <v>4.632083005978622</v>
       </c>
       <c r="O2" t="n">
-        <v>5.16380638548584</v>
+        <v>2.917558375056132</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9380090283993302</v>
+        <v>0.3547829215152175</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2326987354631871</v>
+        <v>0.02485964336490662</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1158504781101332</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.391812110333133</v>
+        <v>0.490042408230958</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2582780833333348</v>
+        <v>0.02580438963328352</v>
       </c>
       <c r="N2" t="n">
-        <v>13.36521899390428</v>
+        <v>4.044634463648775</v>
       </c>
       <c r="O2" t="n">
-        <v>22.28496807402087</v>
+        <v>5.839494646039698</v>
       </c>
     </row>
   </sheetData>

--- a/results/[13_zero_co2_price]_#_inv_capacity.xlsx
+++ b/results/[13_zero_co2_price]_#_inv_capacity.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1851651463765911</v>
+        <v>0.1812636768995252</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02589925663510731</v>
+        <v>0.02497434187251466</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1734801324400598</v>
+        <v>0.1738488</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1304011109248329</v>
+        <v>0.130401110924859</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4039567342501246</v>
+        <v>0.4076228425764395</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9957251134364422</v>
+        <v>0.9948565999999999</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.345858816770113</v>
+        <v>8.552054364790164</v>
       </c>
       <c r="O2" t="n">
-        <v>5.575886644528953</v>
+        <v>5.606994352318015</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1248156211833492</v>
+        <v>0.2169040844903429</v>
       </c>
       <c r="B2" t="n">
-        <v>0.140790332440046</v>
+        <v>0.1832692253478948</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08898626755994007</v>
+        <v>0.1512647663897953</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -681,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.0886774357781539</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5294595865635581</v>
+        <v>0.8712850990390117</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.632083005978622</v>
+        <v>5.772063423759102</v>
       </c>
       <c r="O2" t="n">
-        <v>2.917558375056132</v>
+        <v>4.071807768933123</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3547829215152175</v>
+        <v>0.3694649269708148</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02485964336490662</v>
+        <v>3.555464936272346e-06</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.490042408230958</v>
+        <v>0.4843915289694924</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02580438963328352</v>
+        <v>0.02289547199149599</v>
       </c>
       <c r="N2" t="n">
-        <v>4.044634463648775</v>
+        <v>4.990247716527666</v>
       </c>
       <c r="O2" t="n">
-        <v>5.839494646039698</v>
+        <v>6.450188393386924</v>
       </c>
     </row>
   </sheetData>

--- a/results/[13_zero_co2_price]_#_inv_capacity.xlsx
+++ b/results/[13_zero_co2_price]_#_inv_capacity.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.08480243227177876</v>
+        <v>0.1056801814781402</v>
       </c>
       <c r="B2" t="n">
-        <v>0.005479856803374491</v>
+        <v>0.6345444925873771</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.5204545976732815</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0531349</v>
+        <v>0.31259354256</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1713964431966255</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3999141666666667</v>
+        <v>0.06880566916063374</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6812677243698642</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.774494158844193</v>
+        <v>4.058230026127193</v>
       </c>
       <c r="O2" t="n">
-        <v>5.475032316425031</v>
+        <v>3.364628064996624</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.476827767728214</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02413464319662553</v>
+        <v>0.9817939695283313</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.854459313758384</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2567108638625015</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07809279294088009</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1020953413802113</v>
+        <v>0.1393700898393662</v>
       </c>
       <c r="I2" t="n">
-        <v>1.427109022677429</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.005660363447915484</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.744508802638732</v>
+        <v>20.94204683685145</v>
       </c>
       <c r="O2" t="n">
-        <v>5.16380638548584</v>
+        <v>6.64631114309088</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,19 +803,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9380090283993302</v>
+        <v>0.1666603197945532</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2326987354631871</v>
+        <v>2.05373471179059</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.327190811796509</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1158504781101332</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1261817221222207</v>
       </c>
       <c r="I2" t="n">
-        <v>2.391812110333133</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2582780833333348</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13.36521899390428</v>
+        <v>18.98001011132077</v>
       </c>
       <c r="O2" t="n">
-        <v>22.28496807402087</v>
+        <v>7.285821150245484</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[13_zero_co2_price]_#_inv_capacity.xlsx
+++ b/results/[13_zero_co2_price]_#_inv_capacity.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1812636768995252</v>
+        <v>0.1812636768995239</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02497434187251466</v>
+        <v>0.02497434187251461</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -535,10 +535,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.130401110924859</v>
+        <v>0.1304011109248608</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4076228425764395</v>
+        <v>0.4076228425764394</v>
       </c>
       <c r="I2" t="n">
         <v>0.9948565999999999</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.552054364790164</v>
+        <v>8.552054364790157</v>
       </c>
       <c r="O2" t="n">
-        <v>5.606994352318015</v>
+        <v>5.606994352318014</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2169040844903429</v>
+        <v>0.2169040844903387</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1832692253478948</v>
+        <v>0.1832692253478949</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0886774357781539</v>
+        <v>0.08867743577815401</v>
       </c>
       <c r="I2" t="n">
         <v>0.8712850990390117</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.772063423759102</v>
+        <v>5.772063423759382</v>
       </c>
       <c r="O2" t="n">
-        <v>4.071807768933123</v>
+        <v>4.071807768933124</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3694649269708148</v>
+        <v>0.3694649269708228</v>
       </c>
       <c r="B2" t="n">
-        <v>3.555464936272346e-06</v>
+        <v>3.555464933635566e-06</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4843915289694924</v>
+        <v>0.484391528969492</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02289547199149599</v>
+        <v>0.02289547199149602</v>
       </c>
       <c r="N2" t="n">
-        <v>4.990247716527666</v>
+        <v>4.99024771652735</v>
       </c>
       <c r="O2" t="n">
-        <v>6.450188393386924</v>
+        <v>6.450188393386984</v>
       </c>
     </row>
   </sheetData>
